--- a/examples/rota_dt/spreadsheets/example-rota_dt-org.xlsx
+++ b/examples/rota_dt/spreadsheets/example-rota_dt-org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\rota_dt\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2665FB0-CADA-4073-8700-167A2EA2665A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EE529D-8043-4E23-A8CD-F38E96EA5AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="851" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -33,156 +33,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Half Terms</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7x_dt1</t>
+  </si>
+  <si>
+    <t>food_dt1, food_y7</t>
+  </si>
+  <si>
+    <t>general-1_dt2, textiles_y7</t>
+  </si>
+  <si>
+    <t>workshop-1_dt4, hook-plastic_y7</t>
+  </si>
+  <si>
+    <t>7x_dt2</t>
+  </si>
+  <si>
+    <t>general-2_dt3, textiles_y7</t>
+  </si>
+  <si>
+    <t>workshop-2_dt5, hook-plastic_y7</t>
+  </si>
+  <si>
+    <t>7x_dt3</t>
+  </si>
+  <si>
+    <t>7x_dt4</t>
+  </si>
+  <si>
+    <t>7x_dt5</t>
+  </si>
+  <si>
+    <t>7y_dt1</t>
+  </si>
+  <si>
+    <t>7y_dt2</t>
+  </si>
+  <si>
+    <t>7y_dt3</t>
+  </si>
+  <si>
+    <t>7y_dt4</t>
+  </si>
+  <si>
+    <t>8x_dt1</t>
+  </si>
+  <si>
+    <t>workshop-2_dt5, lamp-money-box_y8</t>
+  </si>
+  <si>
+    <t>general-2_dt3, bridge-forces_y8</t>
+  </si>
+  <si>
+    <t>workshop-2_dt5, lamp-money-box-extra_y8</t>
+  </si>
+  <si>
+    <t>food_dt1, food_y8</t>
+  </si>
+  <si>
+    <t>8x_dt2</t>
+  </si>
+  <si>
+    <t>workshop-1_dt4, lamp-money-box_y8</t>
+  </si>
+  <si>
+    <t>general-1_dt2, bridge-forces_y8</t>
+  </si>
+  <si>
+    <t>8x_dt3</t>
+  </si>
+  <si>
+    <t>workshop-1_dt4, lamp-money-box-extra_y8</t>
+  </si>
+  <si>
+    <t>8x_dt4</t>
+  </si>
+  <si>
+    <t>8x_dt5</t>
+  </si>
+  <si>
+    <t>8y_dt1</t>
+  </si>
+  <si>
+    <t>8y_dt2</t>
+  </si>
+  <si>
+    <t>8y_dt3</t>
+  </si>
+  <si>
+    <t>8y_dt4</t>
+  </si>
+  <si>
+    <t>9x_dt1</t>
+  </si>
+  <si>
+    <t>food_dt1, food_y9</t>
+  </si>
+  <si>
+    <t>workshop-1_dt4, amplifier_y9</t>
+  </si>
+  <si>
+    <t>general-1_dt2, drawing_house_y9</t>
+  </si>
+  <si>
+    <t>9x_dt2</t>
+  </si>
+  <si>
+    <t>workshop-2_dt5, amplifier_y9</t>
+  </si>
+  <si>
+    <t>general-2_dt3, drawing_house_y9</t>
+  </si>
+  <si>
+    <t>9x_dt3</t>
+  </si>
+  <si>
+    <t>9x_dt4</t>
+  </si>
+  <si>
+    <t>9x_dt5</t>
+  </si>
+  <si>
+    <t>9y_dt1</t>
+  </si>
+  <si>
+    <t>9y_dt2</t>
+  </si>
+  <si>
+    <t>9y_dt3</t>
+  </si>
+  <si>
+    <t>9y_dt4</t>
+  </si>
+  <si>
+    <t>9y_dt5</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
   <si>
     <t>Organised Zones</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Half Terms</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>7x_dt1</t>
-  </si>
-  <si>
-    <t>food_dt1, food_y7</t>
-  </si>
-  <si>
-    <t>general-1_dt2, textiles_y7</t>
-  </si>
-  <si>
-    <t>workshop-1_dt4, hook-plastic_y7</t>
-  </si>
-  <si>
-    <t>7x_dt2</t>
-  </si>
-  <si>
-    <t>general-2_dt3, textiles_y7</t>
-  </si>
-  <si>
-    <t>workshop-2_dt5, hook-plastic_y7</t>
-  </si>
-  <si>
-    <t>7x_dt3</t>
-  </si>
-  <si>
-    <t>7x_dt4</t>
-  </si>
-  <si>
-    <t>7x_dt5</t>
-  </si>
-  <si>
-    <t>7y_dt1</t>
-  </si>
-  <si>
-    <t>7y_dt2</t>
-  </si>
-  <si>
-    <t>7y_dt3</t>
-  </si>
-  <si>
-    <t>7y_dt4</t>
-  </si>
-  <si>
-    <t>8x_dt1</t>
-  </si>
-  <si>
-    <t>workshop-2_dt5, lamp-money-box_y8</t>
-  </si>
-  <si>
-    <t>general-2_dt3, bridge-forces_y8</t>
-  </si>
-  <si>
-    <t>workshop-2_dt5, lamp-money-box-extra_y8</t>
-  </si>
-  <si>
-    <t>food_dt1, food_y8</t>
-  </si>
-  <si>
-    <t>8x_dt2</t>
-  </si>
-  <si>
-    <t>workshop-1_dt4, lamp-money-box_y8</t>
-  </si>
-  <si>
-    <t>general-1_dt2, bridge-forces_y8</t>
-  </si>
-  <si>
-    <t>8x_dt3</t>
-  </si>
-  <si>
-    <t>workshop-1_dt4, lamp-money-box-extra_y8</t>
-  </si>
-  <si>
-    <t>8x_dt4</t>
-  </si>
-  <si>
-    <t>8x_dt5</t>
-  </si>
-  <si>
-    <t>8y_dt1</t>
-  </si>
-  <si>
-    <t>8y_dt2</t>
-  </si>
-  <si>
-    <t>8y_dt3</t>
-  </si>
-  <si>
-    <t>8y_dt4</t>
-  </si>
-  <si>
-    <t>9x_dt1</t>
-  </si>
-  <si>
-    <t>food_dt1, food_y9</t>
-  </si>
-  <si>
-    <t>workshop-1_dt4, amplifier_y9</t>
-  </si>
-  <si>
-    <t>general-1_dt2, drawing_house_y9</t>
-  </si>
-  <si>
-    <t>9x_dt2</t>
-  </si>
-  <si>
-    <t>workshop-2_dt5, amplifier_y9</t>
-  </si>
-  <si>
-    <t>general-2_dt3, drawing_house_y9</t>
-  </si>
-  <si>
-    <t>9x_dt3</t>
-  </si>
-  <si>
-    <t>9x_dt4</t>
-  </si>
-  <si>
-    <t>9x_dt5</t>
-  </si>
-  <si>
-    <t>9y_dt1</t>
-  </si>
-  <si>
-    <t>9y_dt2</t>
-  </si>
-  <si>
-    <t>9y_dt3</t>
-  </si>
-  <si>
-    <t>9y_dt4</t>
-  </si>
-  <si>
-    <t>9y_dt5</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -588,10 +591,10 @@
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -604,7 +607,7 @@
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -630,7 +633,7 @@
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -645,100 +648,100 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>6</v>
@@ -750,19 +753,19 @@
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>5</v>
@@ -774,355 +777,359 @@
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>35</v>
@@ -1134,7 +1141,7 @@
     </row>
     <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>36</v>
@@ -1143,52 +1150,52 @@
         <v>36</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>36</v>
@@ -1197,102 +1204,102 @@
         <v>36</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
